--- a/biology/Zoologie/Anthaxia/Anthaxia.xlsx
+++ b/biology/Zoologie/Anthaxia/Anthaxia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anthaxia regroupe de nombreuses espèces d'insectes coléoptères, aussi appelés anthaxies ou richards, de la famille des Buprestidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anthaxies sont de forme allongée. Elles ont une carapace généralement vivement colorée, aux reflets métallisés. 
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Les adultes, diurnes, se nourrissent de pollen ou de pétales de fleurs. Les larves se nourrissent en creusant des galeries dans le bois.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes, diurnes, se nourrissent de pollen ou de pétales de fleurs. Les larves se nourrissent en creusant des galeries dans le bois.
 </t>
         </is>
       </c>
@@ -576,10 +595,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Étymologie
-Le terme Anthaxia vient de anthos (ἄνθοϛ), la fleur, et de axia (ἄξια), qui signifie « digne de »[1].
-Espèces rencontrées en Europe
-Le genre Anthaxia a été divisé en sous-genres. Selon Fauna Europaea, les 4 sous-genres suivants sont présents en Europe :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Anthaxia vient de anthos (ἄνθοϛ), la fleur, et de axia (ἄξια), qui signifie « digne de ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthaxia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthaxia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre Anthaxia a été divisé en sous-genres. Selon Fauna Europaea, les 4 sous-genres suivants sont présents en Europe :
 Sous-genre Anthaxia
 Anthaxia amasina Daniel, 1903
 Anthaxia anatolica Chevrolat, 1837
